--- a/biology/Botanique/Afzelia_xylocarpa/Afzelia_xylocarpa.xlsx
+++ b/biology/Botanique/Afzelia_xylocarpa/Afzelia_xylocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afzelia xylocarpa est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae et de la sous-famille des Caesalpinioideae, originaire d'Asie du Sud-Est.
 Ce sont des arbres pouvant atteindre 30 mètres de haut, dont le bois est exploité comme bois d'œuvre.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Afzelia xylocarpa est un arbre à feuilles caduques à large couronne arrondie, de 15 à 25 mètres de haut, pouvant atteindre 30 mètres, voire 40 mètres dans des cas exceptionnels, avec un tronc de 90 à 150 cm de diamètre, souvent tordu et fourchu, et renforcé par des contreforts. L'écorce est brune.  
-Les feuilles, composées paripennées, comptent 3 à 5 paires de folioles à consistance papyracée, opposées, ovales ou largement elliptique à suborbiculaire, de 4 à 14 cm de long sur 3,5 à 6 cm de large, à l'apex arrondi ou émarginé, portées par des pétiolules courts (moins de 5 mm)[3],[4]. 
+Les feuilles, composées paripennées, comptent 3 à 5 paires de folioles à consistance papyracée, opposées, ovales ou largement elliptique à suborbiculaire, de 4 à 14 cm de long sur 3,5 à 6 cm de large, à l'apex arrondi ou émarginé, portées par des pétiolules courts (moins de 5 mm),. 
 L'inflorescence est vert-jaune grisâtre ou blanc grisâtre duveteuse. Le calice forme un tube de 1 à 1,3 cm de long, avec des lobes elliptiques de 1 à 1,5 cm, à l'apex arrondi. Les pétales sont violet clair, obovales  à suborbiculaires. La fleur compte 7 étamines soudées à la base, aux filaments exserts, longues de 3 à 3,5 cm, et un ovaire étroit, oblong, couvert de poils, avec un style allongé et exsert.
-Le fruit est une gousse dure, brun noirâtre, comprimée, oblongue, de 11 à 17 cm de long sur 7 à 8,5 cm de large. Les graines, au nombre de 2 à 5, sont rouge brunâtre, brillantes, légèrement comprimées, de forme ovoïde à suborbiculaire, d'environ 2 cm de long[3]. 
-La floraison intervient d'avril à mai et la fructification de novembre à décembre[3].
+Le fruit est une gousse dure, brun noirâtre, comprimée, oblongue, de 11 à 17 cm de long sur 7 à 8,5 cm de large. Les graines, au nombre de 2 à 5, sont rouge brunâtre, brillantes, légèrement comprimées, de forme ovoïde à suborbiculaire, d'environ 2 cm de long. 
+La floraison intervient d'avril à mai et la fructification de novembre à décembre.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle d’Afzelia xylocarpa se situe en Asie tropicale : Birmanie, Cambodge, Laos, Thaïlande, Viêt Nam̟[5].
-L'espèce est cultivée, notamment en Chine, dans les provinces suivantes :  Guangdong (Maoming, Xuwen), Guangxi (Hepu, Nanning), Hainan, Yunnan (Shiping, Xishuangbanna)[5],[3].
-Afzelia xylocarpa pousse dans les forêts denses, à des altitudes comprises entre 100 et 650 mètres, dans des zones bénéficiant de 1000 à 1500 mm de précipitations annuelles avec une saison sèche de 5 à 6 mois et une température moyenne comprise entre 20 et 32 °C, avec un minimum absolu de 10 °C[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle d’Afzelia xylocarpa se situe en Asie tropicale : Birmanie, Cambodge, Laos, Thaïlande, Viêt Nam̟.
+L'espèce est cultivée, notamment en Chine, dans les provinces suivantes :  Guangdong (Maoming, Xuwen), Guangxi (Hepu, Nanning), Hainan, Yunnan (Shiping, Xishuangbanna),.
+Afzelia xylocarpa pousse dans les forêts denses, à des altitudes comprises entre 100 et 650 mètres, dans des zones bénéficiant de 1000 à 1500 mm de précipitations annuelles avec une saison sèche de 5 à 6 mois et une température moyenne comprise entre 20 et 32 °C, avec un minimum absolu de 10 °C.
 </t>
         </is>
       </c>
@@ -580,11 +596,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite initialement en 1877 par Wilhelm Sulpiz Kurz sous le nom de Pahudia xylocarpa et publiée dans Forest Flora of British Burma 1:413. Par la suite elle a été transférée dans le genre Afzelia  sous le nom de Afzelia xylocarpa par William Grant Craib et publiée en 1912 dans Bulletin of Miscellaneous Information Kew 1912(6):267[7]. 
-Synonymes
-Catalogue of Life                                   (1 septembre 2018)[8] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite initialement en 1877 par Wilhelm Sulpiz Kurz sous le nom de Pahudia xylocarpa et publiée dans Forest Flora of British Burma 1:413. Par la suite elle a été transférée dans le genre Afzelia  sous le nom de Afzelia xylocarpa par William Grant Craib et publiée en 1912 dans Bulletin of Miscellaneous Information Kew 1912(6):267. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Afzelia_xylocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Afzelia_xylocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Catalogue of Life                                   (1 septembre 2018) : 
 Afzelia cochinchinensis (Pierre)Leonard
 Afzelia siamica Craib
 Pahudia cochinchinensis Pierre
